--- a/Assets/Excel/TestData.xlsx
+++ b/Assets/Excel/TestData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12680" windowHeight="8590"/>
+    <workbookView windowWidth="15030" windowHeight="8590"/>
   </bookViews>
   <sheets>
-    <sheet name="test2" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,13 @@
     <t>dic</t>
   </si>
   <si>
-    <t>Num</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>asfa</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>int</t>
   </si>
   <si>
     <t>string[]</t>
@@ -52,9 +46,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>enum|ObjectiveType</t>
-  </si>
-  <si>
     <t>zxc;54</t>
   </si>
   <si>
@@ -64,13 +55,7 @@
     <t>23;5;55</t>
   </si>
   <si>
-    <t>clipper</t>
-  </si>
-  <si>
     <t>asd;asda;asdasd</t>
-  </si>
-  <si>
-    <t>tweezer</t>
   </si>
 </sst>
 </file>
@@ -83,14 +68,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,48 +524,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,97 +578,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,20 +991,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1039,13 +1016,10 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1054,35 +1028,29 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1090,42 +1058,33 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
         <v>3.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/TestData.xlsx
+++ b/Assets/Excel/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="8590"/>
+    <workbookView windowWidth="15030" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>//Remark</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -26,12 +29,6 @@
   </si>
   <si>
     <t>dic</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>asfa</t>
   </si>
   <si>
     <t>int</t>
@@ -991,99 +988,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="14.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>5</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
         <v>3.5</v>
       </c>
     </row>
